--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/10poff.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/10poff.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23615"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="345" documentId="11_426383585543780D4CF5D7D2DD70983E2C73F92C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6E1FDEE-CFCC-41A3-A89C-BBB1EF0F03B1}"/>
+  <xr:revisionPtr revIDLastSave="355" documentId="11_426383585543780D4CF5D7D2DD70983E2C73F92C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B7E6C903-C0F1-4708-87F0-AF9C6E771F68}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Active Campaign" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Active Campaign" sheetId="3" r:id="rId1"/>
+    <sheet name="Version 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="209">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -87,6 +87,9 @@
     <t>Flawless Body &amp; Face Essentials -Deluxe Kit (Fair/Brunette)</t>
   </si>
   <si>
+    <t>Flawless Body &amp; Face Essentials -Deluxe Kit (Light/Brunette)</t>
+  </si>
+  <si>
     <t>Flawless Body &amp; Face Essentials Deluxe Kit (Natural/Brunette)</t>
   </si>
   <si>
@@ -96,9 +99,15 @@
     <t>Flawless Body &amp; Face Essentials Deluxe Kit (Bronze/Brunette)</t>
   </si>
   <si>
+    <t>Flawless Body &amp; Face Essentials - (Deep/Brunette)</t>
+  </si>
+  <si>
     <t>Flawless Body Essentials Basic Kit (Fair/Brunette)</t>
   </si>
   <si>
+    <t>Flawless Body Essentials Basic Kit (Light/Brunette)</t>
+  </si>
+  <si>
     <t>Flawless Body Essentials Basic Kit  (Natural/Brunette)</t>
   </si>
   <si>
@@ -108,6 +117,9 @@
     <t>Flawless Body Essentials Basic Kit  (Bronze/Brunette)</t>
   </si>
   <si>
+    <t>Flawless Body Essentials - (Deep/Brunette)</t>
+  </si>
+  <si>
     <t>Actual Kit Name (as in site)</t>
   </si>
   <si>
@@ -123,6 +135,9 @@
     <t>Fair Radiance</t>
   </si>
   <si>
+    <t>Light Radiance</t>
+  </si>
+  <si>
     <t>Natural Radiance</t>
   </si>
   <si>
@@ -132,6 +147,9 @@
     <t>Bronze Radiance</t>
   </si>
   <si>
+    <t>Deep Radiance</t>
+  </si>
+  <si>
     <t>PagePattern</t>
   </si>
   <si>
@@ -168,6 +186,9 @@
     <t>WY2A0803</t>
   </si>
   <si>
+    <t xml:space="preserve">WY2A0992 </t>
+  </si>
+  <si>
     <t>WY2A0801</t>
   </si>
   <si>
@@ -177,9 +198,15 @@
     <t>WY2A0804</t>
   </si>
   <si>
+    <t xml:space="preserve">WY2A0993 </t>
+  </si>
+  <si>
     <t>WY2A0157</t>
   </si>
   <si>
+    <t>WY2A0881</t>
+  </si>
+  <si>
     <t>WY2A0155</t>
   </si>
   <si>
@@ -189,6 +216,9 @@
     <t>WY2A0158</t>
   </si>
   <si>
+    <t>WY2A0891 </t>
+  </si>
+  <si>
     <t>Entry piece count</t>
   </si>
   <si>
@@ -216,6 +246,9 @@
     <t>RWYA46S</t>
   </si>
   <si>
+    <t>RWYA4G7</t>
+  </si>
+  <si>
     <t>RWYA46T</t>
   </si>
   <si>
@@ -225,352 +258,322 @@
     <t>RWYA46V</t>
   </si>
   <si>
+    <t>RWYA4G8</t>
+  </si>
+  <si>
     <t>RWYA34H</t>
   </si>
   <si>
+    <t>RWYA4FY</t>
+  </si>
+  <si>
     <t>RWYA33N</t>
   </si>
   <si>
     <t>RWYA33R</t>
   </si>
   <si>
+    <t>RWYA34G</t>
+  </si>
+  <si>
+    <t>RWYA4G3</t>
+  </si>
+  <si>
+    <t>Entry Cart Language</t>
+  </si>
+  <si>
+    <t>One month after your first order is shipped, and then every three months thereafter, you will be sent a new full-size supply of Westmore Beauty. Each shipment will be charged to the card you provide today, in three monthly payments at the low price of $59.95 plus $3.99 for shipping and handling per month, unless you call to cancel. There is no commitment and no minimum to buy. All orders are subject to applicable sales tax.</t>
+  </si>
+  <si>
+    <t>One month after your first order is shipped, and then every three months thereafter, you will be sent a new full-size supply of Westmore Beauty. Each shipment will be charged to the card you provide today, in three monthly payments at the low price of $39.95 plus $3.99 for shipping and handling per month, unless you call to cancel. There is no commitment and no minimum to buy. All orders are subject to applicable sales tax.</t>
+  </si>
+  <si>
+    <t>Entry Supplemental Cart Language</t>
+  </si>
+  <si>
+    <t>I understand that one month after my first order is shipped, and then every three months thereafter, I will be sent a new full-size supply of Westmore Beauty.  Each shipment will be charged in three payments of $59.95 plus $3.99 for shipping and handling per month.  I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting westmorebeauty.com/account.</t>
+  </si>
+  <si>
+    <t>I understand that one month after my first order is shipped, and then every three months thereafter, I will be sent a new full-size supply of Westmore Beauty.  Each shipment will be charged in three payments of $39.95 plus $3.99 for shipping and handling per month.  I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting westmorebeauty.com/account.</t>
+  </si>
+  <si>
+    <t>Entry Promotion 1</t>
+  </si>
+  <si>
+    <t>Coverage Perfector Foundation Brush - WY3A0055</t>
+  </si>
+  <si>
+    <t>Entry Promotion 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free S&amp;H </t>
+  </si>
+  <si>
+    <t>Free S&amp;H</t>
+  </si>
+  <si>
+    <t>Entry Promotion 3</t>
+  </si>
+  <si>
+    <t>Entry Promotion 4</t>
+  </si>
+  <si>
+    <t>Entry Promotion 5</t>
+  </si>
+  <si>
+    <t>10%off</t>
+  </si>
+  <si>
+    <t>Entry Promotion 6</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell to</t>
+  </si>
+  <si>
+    <t>WY2A0779</t>
+  </si>
+  <si>
+    <t>WY2A0991</t>
+  </si>
+  <si>
+    <t>WY2A0805</t>
+  </si>
+  <si>
+    <t>WY2A0806</t>
+  </si>
+  <si>
+    <t>WY2A0780</t>
+  </si>
+  <si>
+    <t>WY2A0994 </t>
+  </si>
+  <si>
+    <t>WY2A0141</t>
+  </si>
+  <si>
+    <t>WY2A0880 </t>
+  </si>
+  <si>
+    <t>WY2A0139</t>
+  </si>
+  <si>
+    <t>WY2A0140</t>
+  </si>
+  <si>
+    <t>WY2A0142</t>
+  </si>
+  <si>
+    <t>WY2A0888 </t>
+  </si>
+  <si>
+    <t>Post Purchase Renewal Plan</t>
+  </si>
+  <si>
+    <t>RWYA46W</t>
+  </si>
+  <si>
+    <t>RWYA4G9</t>
+  </si>
+  <si>
+    <t>RWYA46X</t>
+  </si>
+  <si>
+    <t>RWYA46Y</t>
+  </si>
+  <si>
+    <t>RWYA473</t>
+  </si>
+  <si>
+    <t>RWYA4GA</t>
+  </si>
+  <si>
+    <t>RWYA34V</t>
+  </si>
+  <si>
+    <t>RWYA4G4</t>
+  </si>
+  <si>
+    <t>RWYA34T</t>
+  </si>
+  <si>
+    <t>RWYA34U</t>
+  </si>
+  <si>
+    <t>RWYA34W</t>
+  </si>
+  <si>
+    <t>RWYA4G6</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Pricing</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Shipping</t>
+  </si>
+  <si>
+    <t>Post Purchase Payments</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Payment Plan (Installment)</t>
+  </si>
+  <si>
+    <t>IWYA38L</t>
+  </si>
+  <si>
+    <t>IWYA38K</t>
+  </si>
+  <si>
+    <t>Post Purchase Cart Language</t>
+  </si>
+  <si>
+    <t>Three months after your first order is shipped, and then every three months thereafter, you will be sent a new full-size supply of Westmore Beauty. Each shipment will be charged to the card you provide today, in three monthly payments at the low price of $59.95 plus $3.99 for shipping and handling per month, unless you call to cancel. There is no commitment and no minimum to buy. All orders are subject to applicable sales tax.</t>
+  </si>
+  <si>
+    <t>Three months after your first order is shipped, and then every three months thereafter, you will be sent a new full-size supply of Westmore Beauty. Each shipment will be charged to the card you provide today, in three monthly payments at the low price of $39.95 plus $3.99 for shipping and handling per month, unless you call to cancel. There is no commitment and no minimum to buy. All orders are subject to applicable sales tax.</t>
+  </si>
+  <si>
+    <t>Post Purchase Supplemental Cart Language</t>
+  </si>
+  <si>
+    <t>I understand that three months after my first order is shipped, and then every three months thereafter, I will be sent a new full-size supply of Westmore Beauty.  Each shipment will be charged in three payments of $59.95 plus $3.99 for shipping and handling per month.  I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting westmorebeauty.com/account.</t>
+  </si>
+  <si>
+    <t>I understand that three months after my first order is shipped, and then every three months thereafter, I will be sent a new full-size supply of Westmore Beauty.  Each shipment will be charged in three payments of $39.95 plus $3.99 for shipping and handling per month.  I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting westmorebeauty.com/account.</t>
+  </si>
+  <si>
+    <t>Post Purchase Installment Language</t>
+  </si>
+  <si>
+    <t>You will be charged 3 monthly payments:</t>
+  </si>
+  <si>
+    <t>• 1st Payment: $53.96 charged today (Free Standard S&amp;H)</t>
+  </si>
+  <si>
+    <t>• 1st Payment: $35.96 charged today (Free Standard S&amp;H)</t>
+  </si>
+  <si>
+    <t>• 2nd Payment: $53.96 charged one month from today</t>
+  </si>
+  <si>
+    <t>• 2nd Payment: $35.96 charged one month from today</t>
+  </si>
+  <si>
+    <t>• 3rd Payment: $53.96 charged two months from today</t>
+  </si>
+  <si>
+    <t>• 3rd Payment: $35.96 charged two months from today</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Promotion 1</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Promotion 2</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Promotion 3</t>
+  </si>
+  <si>
+    <t>Bold &amp; Beautiful Mascara - WY1A0027</t>
+  </si>
+  <si>
+    <t>Body Duo - Mitt &amp; 24K gold exfoliating stick - WY3A0054,WY1A0200</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Promotion 4</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Promotion 5</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Promotion 6</t>
+  </si>
+  <si>
+    <t>Continuity piece count</t>
+  </si>
+  <si>
+    <t>Continuity Supply Size</t>
+  </si>
+  <si>
+    <t>90-Day</t>
+  </si>
+  <si>
+    <t>Continuity PPID</t>
+  </si>
+  <si>
+    <t>WY2A0796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WY2A0995 </t>
+  </si>
+  <si>
+    <t>WY2A0781</t>
+  </si>
+  <si>
+    <t>WY2A0782</t>
+  </si>
+  <si>
+    <t>WY2A0797</t>
+  </si>
+  <si>
+    <t>WY2A0996</t>
+  </si>
+  <si>
+    <t>WY2A0129</t>
+  </si>
+  <si>
+    <t>WY2A0886 </t>
+  </si>
+  <si>
+    <t>WY2A0127</t>
+  </si>
+  <si>
+    <t>WY2A0128</t>
+  </si>
+  <si>
+    <t>WY2A0130</t>
+  </si>
+  <si>
+    <t>WY2A0861 </t>
+  </si>
+  <si>
+    <t>Continuity Payments</t>
+  </si>
+  <si>
+    <t>Continuity Payment Plan</t>
+  </si>
+  <si>
+    <t>Continuity Pricing (product)</t>
+  </si>
+  <si>
+    <t>Continuity Shipping</t>
+  </si>
+  <si>
+    <t>Continuity Renewal Plan</t>
+  </si>
+  <si>
+    <t>RWYA33S</t>
+  </si>
+  <si>
+    <t>Continuity Installment Plan</t>
+  </si>
+  <si>
+    <t>IWYA33J</t>
+  </si>
+  <si>
+    <t>Continuity Promotions</t>
+  </si>
+  <si>
+    <t>Continuity S&amp;H number of payments</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
     <t xml:space="preserve">RWYA34G </t>
   </si>
   <si>
-    <t>Entry Cart Language</t>
-  </si>
-  <si>
-    <t>One month after your first order is shipped, and then every three months thereafter, you will be sent a new full-size supply of Westmore Beauty. Each shipment will be charged to the card you provide today, in three monthly payments at the low price of $59.95 plus $3.99 for shipping and handling per month, unless you call to cancel. There is no commitment and no minimum to buy. All orders are subject to applicable sales tax.</t>
-  </si>
-  <si>
-    <t>One month after your first order is shipped, and then every three months thereafter, you will be sent a new full-size supply of Westmore Beauty. Each shipment will be charged to the card you provide today, in three monthly payments at the low price of $39.95 plus $3.99 for shipping and handling per month, unless you call to cancel. There is no commitment and no minimum to buy. All orders are subject to applicable sales tax.</t>
-  </si>
-  <si>
-    <t>Entry Supplemental Cart Language</t>
-  </si>
-  <si>
-    <t>I understand that one month after my first order is shipped, and then every three months thereafter, I will be sent a new full-size supply of Westmore Beauty.  Each shipment will be charged in three payments of $59.95 plus $3.99 for shipping and handling per month.  I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting westmorebeauty.com/account.</t>
-  </si>
-  <si>
-    <t>I understand that one month after my first order is shipped, and then every three months thereafter, I will be sent a new full-size supply of Westmore Beauty.  Each shipment will be charged in three payments of $39.95 plus $3.99 for shipping and handling per month.  I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting westmorebeauty.com/account.</t>
-  </si>
-  <si>
-    <t>Entry Promotion 1</t>
-  </si>
-  <si>
     <t>Free gift Coverage Perfector Foundation Brush - WY3A0055</t>
-  </si>
-  <si>
-    <t>Entry Promotion 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free S&amp;H </t>
-  </si>
-  <si>
-    <t>Free S&amp;H</t>
-  </si>
-  <si>
-    <t>Entry Promotion 3</t>
-  </si>
-  <si>
-    <t>Entry Promotion 4</t>
-  </si>
-  <si>
-    <t>Entry Promotion 5</t>
-  </si>
-  <si>
-    <t>10%off</t>
-  </si>
-  <si>
-    <t>Entry Promotion 6</t>
-  </si>
-  <si>
-    <t>Post Purchase Upsell to</t>
-  </si>
-  <si>
-    <t>WY2A0779</t>
-  </si>
-  <si>
-    <t>WY2A0805</t>
-  </si>
-  <si>
-    <t>WY2A0806</t>
-  </si>
-  <si>
-    <t>WY2A0780</t>
-  </si>
-  <si>
-    <t>WY2A0141</t>
-  </si>
-  <si>
-    <t>WY2A0139</t>
-  </si>
-  <si>
-    <t>WY2A0140</t>
-  </si>
-  <si>
-    <t>WY2A0142</t>
-  </si>
-  <si>
-    <t>Post Purchase Renewal Plan</t>
-  </si>
-  <si>
-    <t>RWYA46W</t>
-  </si>
-  <si>
-    <t>RWYA46X</t>
-  </si>
-  <si>
-    <t>RWYA46Y</t>
-  </si>
-  <si>
-    <t>RWYA473</t>
-  </si>
-  <si>
-    <t>RWYA34V</t>
-  </si>
-  <si>
-    <t>RWYA34T</t>
-  </si>
-  <si>
-    <t>RWYA34U</t>
-  </si>
-  <si>
-    <t>RWYA34W</t>
-  </si>
-  <si>
-    <t>Post Purchase Upsell Pricing</t>
-  </si>
-  <si>
-    <t>Post Purchase Upsell Shipping</t>
-  </si>
-  <si>
-    <t>Post Purchase Payments</t>
-  </si>
-  <si>
-    <t>Post Purchase Upsell Payment Plan (Installment)</t>
-  </si>
-  <si>
-    <t>IWYA38L</t>
-  </si>
-  <si>
-    <t>IWYA38K</t>
-  </si>
-  <si>
-    <t>Post Purchase Cart Language</t>
-  </si>
-  <si>
-    <t>Three months after your first order is shipped, and then every three months thereafter, you will be sent a new full-size supply of Westmore Beauty. Each shipment will be charged to the card you provide today, in three monthly payments at the low price of $59.95 plus $3.99 for shipping and handling per month, unless you call to cancel. There is no commitment and no minimum to buy. All orders are subject to applicable sales tax.</t>
-  </si>
-  <si>
-    <t>Three months after your first order is shipped, and then every three months thereafter, you will be sent a new full-size supply of Westmore Beauty. Each shipment will be charged to the card you provide today, in three monthly payments at the low price of $39.95 plus $3.99 for shipping and handling per month, unless you call to cancel. There is no commitment and no minimum to buy. All orders are subject to applicable sales tax.</t>
-  </si>
-  <si>
-    <t>Post Purchase Supplemental Cart Language</t>
-  </si>
-  <si>
-    <t>I understand that three months after my first order is shipped, and then every three months thereafter, I will be sent a new full-size supply of Westmore Beauty.  Each shipment will be charged in three payments of $59.95 plus $3.99 for shipping and handling per month.  I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting westmorebeauty.com/account.</t>
-  </si>
-  <si>
-    <t>I understand that three months after my first order is shipped, and then every three months thereafter, I will be sent a new full-size supply of Westmore Beauty.  Each shipment will be charged in three payments of $39.95 plus $3.99 for shipping and handling per month.  I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting westmorebeauty.com/account.</t>
-  </si>
-  <si>
-    <t>Post Purchase Installment Language</t>
-  </si>
-  <si>
-    <t>You will be charged 3 monthly payments:</t>
-  </si>
-  <si>
-    <t>• 1st Payment: $53.96 charged today (Free Standard S&amp;H)</t>
-  </si>
-  <si>
-    <t>• 1st Payment: $35.96 charged today (Free Standard S&amp;H)</t>
-  </si>
-  <si>
-    <t>• 2nd Payment: $53.96 charged one month from today</t>
-  </si>
-  <si>
-    <t>• 2nd Payment: $35.96 charged one month from today</t>
-  </si>
-  <si>
-    <t>• 3rd Payment: $53.96 charged two months from today</t>
-  </si>
-  <si>
-    <t>• 3rd Payment: $35.96 charged two months from today</t>
-  </si>
-  <si>
-    <t>Post Purchase Upsell Promotion 1</t>
-  </si>
-  <si>
-    <t>Post Purchase Upsell Promotion 2</t>
-  </si>
-  <si>
-    <t>Post Purchase Upsell Promotion 3</t>
-  </si>
-  <si>
-    <t>Bold &amp; Beautiful Mascara - WY1A0027</t>
-  </si>
-  <si>
-    <t>Body Duo - Mitt &amp; 24K gold exfoliating stick - WY3A0054,WY1A0200</t>
-  </si>
-  <si>
-    <t>Post Purchase Upsell Promotion 4</t>
-  </si>
-  <si>
-    <t>Post Purchase Upsell Promotion 5</t>
-  </si>
-  <si>
-    <t>Post Purchase Upsell Promotion 6</t>
-  </si>
-  <si>
-    <t>Continuity piece count</t>
-  </si>
-  <si>
-    <t>Continuity Supply Size</t>
-  </si>
-  <si>
-    <t>90-Day</t>
-  </si>
-  <si>
-    <t>Continuity PPID</t>
-  </si>
-  <si>
-    <t>WY2A0796</t>
-  </si>
-  <si>
-    <t>WY2A0781</t>
-  </si>
-  <si>
-    <t>WY2A0782</t>
-  </si>
-  <si>
-    <t>WY2A0797</t>
-  </si>
-  <si>
-    <t>WY2A0129</t>
-  </si>
-  <si>
-    <t>WY2A0127</t>
-  </si>
-  <si>
-    <t>WY2A0128</t>
-  </si>
-  <si>
-    <t>WY2A0130</t>
-  </si>
-  <si>
-    <t>Continuity Payments</t>
-  </si>
-  <si>
-    <t>Continuity Payment Plan</t>
-  </si>
-  <si>
-    <t>Continuity Pricing (product)</t>
-  </si>
-  <si>
-    <t>Continuity Shipping</t>
-  </si>
-  <si>
-    <t>Continuity Renewal Plan</t>
-  </si>
-  <si>
-    <t>RWYA33S</t>
-  </si>
-  <si>
-    <t>Continuity Installment Plan</t>
-  </si>
-  <si>
-    <t>IWYA33J</t>
-  </si>
-  <si>
-    <t>Continuity Promotions</t>
-  </si>
-  <si>
-    <t>Continuity S&amp;H number of payments</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Flawless Body &amp; Face Essentials -Deluxe Kit (Light/Brunette)</t>
-  </si>
-  <si>
-    <t>Flawless Body &amp; Face Essentials - (Deep/Brunette)</t>
-  </si>
-  <si>
-    <t>Flawless Body Essentials Basic Kit (Light/Brunette)</t>
-  </si>
-  <si>
-    <t>Flawless Body Essentials - (Deep/Brunette)</t>
-  </si>
-  <si>
-    <t>Light Radiance</t>
-  </si>
-  <si>
-    <t>Deep Radiance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0992 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0993 </t>
-  </si>
-  <si>
-    <t>WY2A0881</t>
-  </si>
-  <si>
-    <t>WY2A0891 </t>
-  </si>
-  <si>
-    <t>RWYA4G7</t>
-  </si>
-  <si>
-    <t>RWYA4G8</t>
-  </si>
-  <si>
-    <t>RWYA4FY</t>
-  </si>
-  <si>
-    <t>RWYA34G</t>
-  </si>
-  <si>
-    <t>RWYA4G3</t>
-  </si>
-  <si>
-    <t>WY2A0991</t>
-  </si>
-  <si>
-    <t>WY2A0994 </t>
-  </si>
-  <si>
-    <t>WY2A0880 </t>
-  </si>
-  <si>
-    <t>WY2A0888 </t>
-  </si>
-  <si>
-    <t>RWYA4G9</t>
-  </si>
-  <si>
-    <t>RWYA4GA</t>
-  </si>
-  <si>
-    <t>RWYA4G4</t>
-  </si>
-  <si>
-    <t>RWYA4G6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0995 </t>
-  </si>
-  <si>
-    <t>WY2A0996</t>
-  </si>
-  <si>
-    <t>WY2A0886 </t>
-  </si>
-  <si>
-    <t>WY2A0861 </t>
   </si>
   <si>
     <t>Ultimate Body Coverage Kit(Fair/Brunette)</t>
@@ -1467,6 +1470,2103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04DC052-B66B-441E-B466-E319F1587E6A}">
+  <dimension ref="A1:M63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="7" width="36.140625" customWidth="1"/>
+    <col min="8" max="9" width="35.28515625" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" customWidth="1"/>
+    <col min="11" max="11" width="49.140625" customWidth="1"/>
+    <col min="12" max="12" width="41.28515625" customWidth="1"/>
+    <col min="13" max="13" width="42.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.5">
+      <c r="A2" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5">
+        <v>53</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="47.25">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="31.5">
+      <c r="A8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75">
+      <c r="A9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75">
+      <c r="A10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75">
+      <c r="A11" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75">
+      <c r="A12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20">
+        <v>1</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2</v>
+      </c>
+      <c r="I12" s="21">
+        <v>2</v>
+      </c>
+      <c r="J12" s="21">
+        <v>2</v>
+      </c>
+      <c r="K12" s="21">
+        <v>2</v>
+      </c>
+      <c r="L12" s="21">
+        <v>2</v>
+      </c>
+      <c r="M12" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75">
+      <c r="A13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75">
+      <c r="A14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75">
+      <c r="A15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75">
+      <c r="A16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75">
+      <c r="A17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75">
+      <c r="A18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="23">
+        <v>1</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1</v>
+      </c>
+      <c r="D18" s="23">
+        <v>1</v>
+      </c>
+      <c r="E18" s="23">
+        <v>1</v>
+      </c>
+      <c r="F18" s="23">
+        <v>1</v>
+      </c>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24">
+        <v>1</v>
+      </c>
+      <c r="I18" s="24">
+        <v>1</v>
+      </c>
+      <c r="J18" s="25">
+        <v>1</v>
+      </c>
+      <c r="K18" s="25">
+        <v>1</v>
+      </c>
+      <c r="L18" s="25">
+        <v>1</v>
+      </c>
+      <c r="M18" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75">
+      <c r="A19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="26">
+        <v>59.95</v>
+      </c>
+      <c r="C19" s="26">
+        <v>59.95</v>
+      </c>
+      <c r="D19" s="26">
+        <v>59.95</v>
+      </c>
+      <c r="E19" s="26">
+        <v>59.95</v>
+      </c>
+      <c r="F19" s="26">
+        <v>59.95</v>
+      </c>
+      <c r="G19" s="26">
+        <v>59.95</v>
+      </c>
+      <c r="H19" s="27">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I19" s="27">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="J19" s="28">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="K19" s="28">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="L19" s="28">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="M19" s="28">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75">
+      <c r="A20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="26">
+        <v>53.96</v>
+      </c>
+      <c r="C20" s="26">
+        <v>53.96</v>
+      </c>
+      <c r="D20" s="26">
+        <v>53.96</v>
+      </c>
+      <c r="E20" s="26">
+        <v>53.96</v>
+      </c>
+      <c r="F20" s="26">
+        <v>53.96</v>
+      </c>
+      <c r="G20" s="26">
+        <v>53.96</v>
+      </c>
+      <c r="H20" s="27">
+        <v>35.96</v>
+      </c>
+      <c r="I20" s="27">
+        <v>35.96</v>
+      </c>
+      <c r="J20" s="27">
+        <v>35.96</v>
+      </c>
+      <c r="K20" s="27">
+        <v>35.96</v>
+      </c>
+      <c r="L20" s="27">
+        <v>35.96</v>
+      </c>
+      <c r="M20" s="27">
+        <v>35.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75">
+      <c r="A21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="26">
+        <v>0</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0</v>
+      </c>
+      <c r="H21" s="27">
+        <v>0</v>
+      </c>
+      <c r="I21" s="27">
+        <v>0</v>
+      </c>
+      <c r="J21" s="28">
+        <v>0</v>
+      </c>
+      <c r="K21" s="28">
+        <v>0</v>
+      </c>
+      <c r="L21" s="28">
+        <v>0</v>
+      </c>
+      <c r="M21" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75">
+      <c r="A22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="236.25">
+      <c r="A23" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="210">
+      <c r="A24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="31.5">
+      <c r="A25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75">
+      <c r="A26" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75">
+      <c r="A27" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75">
+      <c r="A28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75">
+      <c r="A29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75">
+      <c r="A30" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75">
+      <c r="A31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="L31" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="M31" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75">
+      <c r="A32" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75">
+      <c r="A33" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="26">
+        <v>53.96</v>
+      </c>
+      <c r="C33" s="26">
+        <v>53.96</v>
+      </c>
+      <c r="D33" s="26">
+        <v>53.96</v>
+      </c>
+      <c r="E33" s="26">
+        <v>53.96</v>
+      </c>
+      <c r="F33" s="26">
+        <v>53.96</v>
+      </c>
+      <c r="G33" s="26">
+        <v>53.96</v>
+      </c>
+      <c r="H33" s="27">
+        <v>35.96</v>
+      </c>
+      <c r="I33" s="27">
+        <v>35.96</v>
+      </c>
+      <c r="J33" s="27">
+        <v>35.96</v>
+      </c>
+      <c r="K33" s="27">
+        <v>35.96</v>
+      </c>
+      <c r="L33" s="27">
+        <v>35.96</v>
+      </c>
+      <c r="M33" s="27">
+        <v>35.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75">
+      <c r="A34" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="26">
+        <v>0</v>
+      </c>
+      <c r="C34" s="26">
+        <v>0</v>
+      </c>
+      <c r="D34" s="26">
+        <v>0</v>
+      </c>
+      <c r="E34" s="26">
+        <v>0</v>
+      </c>
+      <c r="F34" s="26">
+        <v>0</v>
+      </c>
+      <c r="G34" s="26">
+        <v>0</v>
+      </c>
+      <c r="H34" s="27">
+        <v>0</v>
+      </c>
+      <c r="I34" s="27">
+        <v>0</v>
+      </c>
+      <c r="J34" s="28">
+        <v>0</v>
+      </c>
+      <c r="K34" s="28">
+        <v>0</v>
+      </c>
+      <c r="L34" s="28">
+        <v>0</v>
+      </c>
+      <c r="M34" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75">
+      <c r="A35" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="23">
+        <v>3</v>
+      </c>
+      <c r="C35" s="23">
+        <v>3</v>
+      </c>
+      <c r="D35" s="23">
+        <v>3</v>
+      </c>
+      <c r="E35" s="23">
+        <v>3</v>
+      </c>
+      <c r="F35" s="23">
+        <v>3</v>
+      </c>
+      <c r="G35" s="23">
+        <v>3</v>
+      </c>
+      <c r="H35" s="24">
+        <v>3</v>
+      </c>
+      <c r="I35" s="24">
+        <v>3</v>
+      </c>
+      <c r="J35" s="25">
+        <v>3</v>
+      </c>
+      <c r="K35" s="25">
+        <v>3</v>
+      </c>
+      <c r="L35" s="25">
+        <v>3</v>
+      </c>
+      <c r="M35" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75">
+      <c r="A36" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="L36" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="236.25">
+      <c r="A37" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="210">
+      <c r="A38" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="J38" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="K38" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="L38" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="31.5">
+      <c r="A39" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="K39" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="L39" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="M39" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75">
+      <c r="A40" s="32"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+    </row>
+    <row r="41" spans="1:13" ht="31.5">
+      <c r="A41" s="32"/>
+      <c r="B41" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="K41" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="L41" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="M41" s="44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+    </row>
+    <row r="43" spans="1:13" ht="31.5">
+      <c r="A43" s="32"/>
+      <c r="B43" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="J43" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="L43" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="M43" s="44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75">
+      <c r="A44" s="32"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+    </row>
+    <row r="45" spans="1:13" ht="31.5">
+      <c r="A45" s="35"/>
+      <c r="B45" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="J45" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="K45" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="L45" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="M45" s="46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="31.5">
+      <c r="A46" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+    </row>
+    <row r="47" spans="1:13" ht="15.75">
+      <c r="A47" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+    </row>
+    <row r="48" spans="1:13" ht="47.25">
+      <c r="A48" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="J48" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="K48" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L48" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="M48" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.75">
+      <c r="A49" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K49" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L49" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="M49" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.75">
+      <c r="A50" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+    </row>
+    <row r="51" spans="1:13" ht="15.75">
+      <c r="A51" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.75">
+      <c r="A52" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.75">
+      <c r="A53" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K53" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="L53" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="M53" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75">
+      <c r="A54" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="J54" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="K54" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L54" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="M54" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75">
+      <c r="A55" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="23">
+        <v>3</v>
+      </c>
+      <c r="C55" s="23">
+        <v>3</v>
+      </c>
+      <c r="D55" s="23">
+        <v>3</v>
+      </c>
+      <c r="E55" s="23">
+        <v>3</v>
+      </c>
+      <c r="F55" s="23">
+        <v>3</v>
+      </c>
+      <c r="G55" s="23">
+        <v>3</v>
+      </c>
+      <c r="H55" s="24">
+        <v>3</v>
+      </c>
+      <c r="I55" s="24">
+        <v>3</v>
+      </c>
+      <c r="J55" s="25">
+        <v>3</v>
+      </c>
+      <c r="K55" s="25">
+        <v>3</v>
+      </c>
+      <c r="L55" s="25">
+        <v>3</v>
+      </c>
+      <c r="M55" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.75">
+      <c r="A56" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+    </row>
+    <row r="57" spans="1:13" ht="15.75">
+      <c r="A57" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="26">
+        <v>59.95</v>
+      </c>
+      <c r="C57" s="26">
+        <v>59.95</v>
+      </c>
+      <c r="D57" s="26">
+        <v>59.95</v>
+      </c>
+      <c r="E57" s="26">
+        <v>59.95</v>
+      </c>
+      <c r="F57" s="26">
+        <v>59.95</v>
+      </c>
+      <c r="G57" s="26">
+        <v>59.95</v>
+      </c>
+      <c r="H57" s="27">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I57" s="27">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="J57" s="27">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="K57" s="27">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="L57" s="27">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="M57" s="27">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75">
+      <c r="A58" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="26">
+        <v>3.99</v>
+      </c>
+      <c r="C58" s="26">
+        <v>3.99</v>
+      </c>
+      <c r="D58" s="26">
+        <v>3.99</v>
+      </c>
+      <c r="E58" s="26">
+        <v>3.99</v>
+      </c>
+      <c r="F58" s="26">
+        <v>3.99</v>
+      </c>
+      <c r="G58" s="26">
+        <v>3.99</v>
+      </c>
+      <c r="H58" s="27">
+        <v>3.99</v>
+      </c>
+      <c r="I58" s="27">
+        <v>3.99</v>
+      </c>
+      <c r="J58" s="27">
+        <v>3.99</v>
+      </c>
+      <c r="K58" s="27">
+        <v>3.99</v>
+      </c>
+      <c r="L58" s="27">
+        <v>3.99</v>
+      </c>
+      <c r="M58" s="27">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.75">
+      <c r="A59" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="K59" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="L59" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="M59" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75">
+      <c r="A60" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="J60" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="K60" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="L60" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="M60" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75">
+      <c r="A61" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.75">
+      <c r="A62" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="29">
+        <v>3</v>
+      </c>
+      <c r="C62" s="29">
+        <v>3</v>
+      </c>
+      <c r="D62" s="29">
+        <v>3</v>
+      </c>
+      <c r="E62" s="29">
+        <v>3</v>
+      </c>
+      <c r="F62" s="29">
+        <v>3</v>
+      </c>
+      <c r="G62" s="29">
+        <v>3</v>
+      </c>
+      <c r="H62" s="30">
+        <v>3</v>
+      </c>
+      <c r="I62" s="30">
+        <v>3</v>
+      </c>
+      <c r="J62" s="31">
+        <v>3</v>
+      </c>
+      <c r="K62" s="31">
+        <v>3</v>
+      </c>
+      <c r="L62" s="31">
+        <v>3</v>
+      </c>
+      <c r="M62" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.75">
+      <c r="A63" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:M11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5AD221A2-502E-480A-98A1-E154C4C950DB}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{CDA7A61D-BF4E-458E-86FA-4B61C6097DE3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50761963-3056-4B63-AA5E-B1E903BF727D}">
   <dimension ref="A1:J63"/>
   <sheetViews>
@@ -1606,121 +3706,121 @@
         <v>18</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="31.5">
       <c r="A8" s="12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="55" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
@@ -1734,7 +3834,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="19" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B12" s="20">
         <v>1</v>
@@ -1764,97 +3864,97 @@
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -1868,37 +3968,37 @@
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B18" s="23">
         <v>1</v>
@@ -1928,7 +4028,7 @@
     </row>
     <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="9" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B19" s="26">
         <v>59.95</v>
@@ -1958,7 +4058,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="9" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B20" s="26">
         <v>53.96</v>
@@ -1988,7 +4088,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B21" s="26">
         <v>0</v>
@@ -2018,109 +4118,109 @@
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10" ht="236.25">
       <c r="A23" s="12" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" ht="210">
       <c r="A24" s="9" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:10" ht="47.25">
       <c r="A25" s="9" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
@@ -2130,37 +4230,37 @@
     </row>
     <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="9" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="9" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -2174,7 +4274,7 @@
     </row>
     <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="9" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -2188,37 +4288,37 @@
     </row>
     <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="9" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="9" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -2232,67 +4332,67 @@
     </row>
     <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="9" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="9" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="9" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B33" s="26">
         <v>53.96</v>
@@ -2322,7 +4422,7 @@
     </row>
     <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="9" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B34" s="26">
         <v>0</v>
@@ -2352,7 +4452,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="9" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B35" s="23">
         <v>3</v>
@@ -2382,121 +4482,121 @@
     </row>
     <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="9" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:10" ht="236.25">
       <c r="A37" s="12" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="J37" s="31"/>
     </row>
     <row r="38" spans="1:10" ht="210">
       <c r="A38" s="9" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="J38" s="39"/>
     </row>
     <row r="39" spans="1:10" ht="31.5">
       <c r="A39" s="12" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="H39" s="42" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="I39" s="42" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="J39" s="42"/>
     </row>
@@ -2515,28 +4615,28 @@
     <row r="41" spans="1:10" ht="31.5">
       <c r="A41" s="32"/>
       <c r="B41" s="33" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="H41" s="44" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="I41" s="44" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="J41" s="34"/>
     </row>
@@ -2555,28 +4655,28 @@
     <row r="43" spans="1:10" ht="31.5">
       <c r="A43" s="32"/>
       <c r="B43" s="33" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="I43" s="44" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="J43" s="34"/>
     </row>
@@ -2595,46 +4695,46 @@
     <row r="45" spans="1:10" ht="31.5">
       <c r="A45" s="35"/>
       <c r="B45" s="36" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F45" s="46" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="G45" s="46" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="H45" s="46" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="I45" s="46" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="J45" s="47"/>
     </row>
     <row r="46" spans="1:10" ht="47.25">
       <c r="A46" s="9" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="F46" s="24"/>
       <c r="G46" s="25"/>
@@ -2644,7 +4744,7 @@
     </row>
     <row r="47" spans="1:10" ht="15.75">
       <c r="A47" s="9" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -2658,67 +4758,67 @@
     </row>
     <row r="48" spans="1:10" ht="47.25">
       <c r="A48" s="9" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="J48" s="25"/>
     </row>
     <row r="49" spans="1:10" ht="15.75">
       <c r="A49" s="9" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J49" s="25"/>
     </row>
     <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="9" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -2732,7 +4832,7 @@
     </row>
     <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="9" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -2746,7 +4846,7 @@
     </row>
     <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="9" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -2760,67 +4860,67 @@
     </row>
     <row r="53" spans="1:10" ht="15.75">
       <c r="A53" s="9" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" ht="15.75">
       <c r="A54" s="9" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="J54" s="25"/>
     </row>
     <row r="55" spans="1:10" ht="15.75">
       <c r="A55" s="9" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B55" s="23">
         <v>3</v>
@@ -2850,7 +4950,7 @@
     </row>
     <row r="56" spans="1:10" ht="15.75">
       <c r="A56" s="9" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -2864,7 +4964,7 @@
     </row>
     <row r="57" spans="1:10" ht="15.75">
       <c r="A57" s="9" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B57" s="26">
         <v>59.95</v>
@@ -2894,7 +4994,7 @@
     </row>
     <row r="58" spans="1:10" ht="15.75">
       <c r="A58" s="9" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="B58" s="26">
         <v>3.99</v>
@@ -2924,67 +5024,67 @@
     </row>
     <row r="59" spans="1:10" ht="15.75">
       <c r="A59" s="9" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="J59" s="25"/>
     </row>
     <row r="60" spans="1:10" ht="15.75">
       <c r="A60" s="9" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="J60" s="25"/>
     </row>
     <row r="61" spans="1:10" ht="15.75">
       <c r="A61" s="9" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -2998,7 +5098,7 @@
     </row>
     <row r="62" spans="1:10" ht="15.75">
       <c r="A62" s="12" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="B62" s="29">
         <v>3</v>
@@ -3028,7 +5128,7 @@
     </row>
     <row r="63" spans="1:10" ht="15.75">
       <c r="A63" s="48" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3052,2108 +5152,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04DC052-B66B-441E-B466-E319F1587E6A}">
-  <dimension ref="A1:M63"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="61.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="7" width="36.140625" customWidth="1"/>
-    <col min="8" max="9" width="35.28515625" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" customWidth="1"/>
-    <col min="11" max="11" width="49.140625" customWidth="1"/>
-    <col min="12" max="12" width="41.28515625" customWidth="1"/>
-    <col min="13" max="13" width="42.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16.5">
-      <c r="A2" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5">
-        <v>53</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" ht="47.25">
-      <c r="A7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="31.5">
-      <c r="A8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75">
-      <c r="A9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75">
-      <c r="A10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75">
-      <c r="A11" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="20">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20">
-        <v>1</v>
-      </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-      <c r="E12" s="20">
-        <v>1</v>
-      </c>
-      <c r="F12" s="20">
-        <v>1</v>
-      </c>
-      <c r="G12" s="20">
-        <v>1</v>
-      </c>
-      <c r="H12" s="21">
-        <v>2</v>
-      </c>
-      <c r="I12" s="21">
-        <v>2</v>
-      </c>
-      <c r="J12" s="21">
-        <v>2</v>
-      </c>
-      <c r="K12" s="21">
-        <v>2</v>
-      </c>
-      <c r="L12" s="21">
-        <v>2</v>
-      </c>
-      <c r="M12" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75">
-      <c r="A13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75">
-      <c r="A14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75">
-      <c r="A15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75">
-      <c r="A16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75">
-      <c r="A17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75">
-      <c r="A18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="23">
-        <v>1</v>
-      </c>
-      <c r="C18" s="23">
-        <v>1</v>
-      </c>
-      <c r="D18" s="23">
-        <v>1</v>
-      </c>
-      <c r="E18" s="23">
-        <v>1</v>
-      </c>
-      <c r="F18" s="23">
-        <v>1</v>
-      </c>
-      <c r="G18" s="23">
-        <v>1</v>
-      </c>
-      <c r="H18" s="24">
-        <v>1</v>
-      </c>
-      <c r="I18" s="24">
-        <v>1</v>
-      </c>
-      <c r="J18" s="25">
-        <v>1</v>
-      </c>
-      <c r="K18" s="25">
-        <v>1</v>
-      </c>
-      <c r="L18" s="25">
-        <v>1</v>
-      </c>
-      <c r="M18" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75">
-      <c r="A19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="26">
-        <v>59.95</v>
-      </c>
-      <c r="C19" s="26">
-        <v>59.95</v>
-      </c>
-      <c r="D19" s="26">
-        <v>59.95</v>
-      </c>
-      <c r="E19" s="26">
-        <v>59.95</v>
-      </c>
-      <c r="F19" s="26">
-        <v>59.95</v>
-      </c>
-      <c r="G19" s="26">
-        <v>59.95</v>
-      </c>
-      <c r="H19" s="27">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="I19" s="27">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="J19" s="28">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="K19" s="28">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="L19" s="28">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="M19" s="28">
-        <v>39.950000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75">
-      <c r="A20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="26">
-        <v>53.96</v>
-      </c>
-      <c r="C20" s="26">
-        <v>53.96</v>
-      </c>
-      <c r="D20" s="26">
-        <v>53.96</v>
-      </c>
-      <c r="E20" s="26">
-        <v>53.96</v>
-      </c>
-      <c r="F20" s="26">
-        <v>53.96</v>
-      </c>
-      <c r="G20" s="26">
-        <v>53.96</v>
-      </c>
-      <c r="H20" s="27">
-        <v>35.96</v>
-      </c>
-      <c r="I20" s="27">
-        <v>35.96</v>
-      </c>
-      <c r="J20" s="27">
-        <v>35.96</v>
-      </c>
-      <c r="K20" s="27">
-        <v>35.96</v>
-      </c>
-      <c r="L20" s="27">
-        <v>35.96</v>
-      </c>
-      <c r="M20" s="27">
-        <v>35.96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75">
-      <c r="A21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="26">
-        <v>0</v>
-      </c>
-      <c r="C21" s="26">
-        <v>0</v>
-      </c>
-      <c r="D21" s="26">
-        <v>0</v>
-      </c>
-      <c r="E21" s="26">
-        <v>0</v>
-      </c>
-      <c r="F21" s="26">
-        <v>0</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0</v>
-      </c>
-      <c r="H21" s="27">
-        <v>0</v>
-      </c>
-      <c r="I21" s="27">
-        <v>0</v>
-      </c>
-      <c r="J21" s="28">
-        <v>0</v>
-      </c>
-      <c r="K21" s="28">
-        <v>0</v>
-      </c>
-      <c r="L21" s="28">
-        <v>0</v>
-      </c>
-      <c r="M21" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75">
-      <c r="A22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="236.25">
-      <c r="A23" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="M23" s="31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="210">
-      <c r="A24" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="47.25">
-      <c r="A25" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="L26" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="M26" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75">
-      <c r="A27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75">
-      <c r="A28" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75">
-      <c r="A29" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="L29" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="M29" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75">
-      <c r="A30" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75">
-      <c r="A31" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="L31" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="M31" s="25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75">
-      <c r="A32" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="M32" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75">
-      <c r="A33" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="26">
-        <v>53.96</v>
-      </c>
-      <c r="C33" s="26">
-        <v>53.96</v>
-      </c>
-      <c r="D33" s="26">
-        <v>53.96</v>
-      </c>
-      <c r="E33" s="26">
-        <v>53.96</v>
-      </c>
-      <c r="F33" s="26">
-        <v>53.96</v>
-      </c>
-      <c r="G33" s="26">
-        <v>53.96</v>
-      </c>
-      <c r="H33" s="27">
-        <v>35.96</v>
-      </c>
-      <c r="I33" s="27">
-        <v>35.96</v>
-      </c>
-      <c r="J33" s="27">
-        <v>35.96</v>
-      </c>
-      <c r="K33" s="27">
-        <v>35.96</v>
-      </c>
-      <c r="L33" s="27">
-        <v>35.96</v>
-      </c>
-      <c r="M33" s="27">
-        <v>35.96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75">
-      <c r="A34" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="26">
-        <v>0</v>
-      </c>
-      <c r="C34" s="26">
-        <v>0</v>
-      </c>
-      <c r="D34" s="26">
-        <v>0</v>
-      </c>
-      <c r="E34" s="26">
-        <v>0</v>
-      </c>
-      <c r="F34" s="26">
-        <v>0</v>
-      </c>
-      <c r="G34" s="26">
-        <v>0</v>
-      </c>
-      <c r="H34" s="27">
-        <v>0</v>
-      </c>
-      <c r="I34" s="27">
-        <v>0</v>
-      </c>
-      <c r="J34" s="28">
-        <v>0</v>
-      </c>
-      <c r="K34" s="28">
-        <v>0</v>
-      </c>
-      <c r="L34" s="28">
-        <v>0</v>
-      </c>
-      <c r="M34" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75">
-      <c r="A35" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="23">
-        <v>3</v>
-      </c>
-      <c r="C35" s="23">
-        <v>3</v>
-      </c>
-      <c r="D35" s="23">
-        <v>3</v>
-      </c>
-      <c r="E35" s="23">
-        <v>3</v>
-      </c>
-      <c r="F35" s="23">
-        <v>3</v>
-      </c>
-      <c r="G35" s="23">
-        <v>3</v>
-      </c>
-      <c r="H35" s="24">
-        <v>3</v>
-      </c>
-      <c r="I35" s="24">
-        <v>3</v>
-      </c>
-      <c r="J35" s="25">
-        <v>3</v>
-      </c>
-      <c r="K35" s="25">
-        <v>3</v>
-      </c>
-      <c r="L35" s="25">
-        <v>3</v>
-      </c>
-      <c r="M35" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75">
-      <c r="A36" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="I36" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="J36" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="L36" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M36" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="236.25">
-      <c r="A37" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="I37" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="J37" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="K37" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="L37" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="M37" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="210">
-      <c r="A38" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="I38" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="J38" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="K38" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="L38" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="M38" s="39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="31.5">
-      <c r="A39" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="I39" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="J39" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="K39" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="L39" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="M39" s="42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-    </row>
-    <row r="41" spans="1:13" ht="31.5">
-      <c r="A41" s="32"/>
-      <c r="B41" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="H41" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="I41" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="J41" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="K41" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="L41" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="M41" s="44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75">
-      <c r="A42" s="32"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-    </row>
-    <row r="43" spans="1:13" ht="31.5">
-      <c r="A43" s="32"/>
-      <c r="B43" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="I43" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="J43" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="K43" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="L43" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="M43" s="44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-    </row>
-    <row r="45" spans="1:13" ht="31.5">
-      <c r="A45" s="35"/>
-      <c r="B45" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="H45" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="I45" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="J45" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="K45" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="L45" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="M45" s="46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="47.25">
-      <c r="A46" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.75">
-      <c r="A47" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-    </row>
-    <row r="48" spans="1:13" ht="47.25">
-      <c r="A48" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="I48" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="K48" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="L48" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="M48" s="25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75">
-      <c r="A49" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="J49" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K49" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="L49" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="M49" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="15.75">
-      <c r="A50" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.75">
-      <c r="A51" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75">
-      <c r="A52" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-    </row>
-    <row r="53" spans="1:13" ht="15.75">
-      <c r="A53" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="J53" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="K53" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="L53" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="M53" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="15.75">
-      <c r="A54" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G54" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="I54" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="K54" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="L54" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="M54" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75">
-      <c r="A55" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="23">
-        <v>3</v>
-      </c>
-      <c r="C55" s="23">
-        <v>3</v>
-      </c>
-      <c r="D55" s="23">
-        <v>3</v>
-      </c>
-      <c r="E55" s="23">
-        <v>3</v>
-      </c>
-      <c r="F55" s="23">
-        <v>3</v>
-      </c>
-      <c r="G55" s="23">
-        <v>3</v>
-      </c>
-      <c r="H55" s="24">
-        <v>3</v>
-      </c>
-      <c r="I55" s="24">
-        <v>3</v>
-      </c>
-      <c r="J55" s="25">
-        <v>3</v>
-      </c>
-      <c r="K55" s="25">
-        <v>3</v>
-      </c>
-      <c r="L55" s="25">
-        <v>3</v>
-      </c>
-      <c r="M55" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.75">
-      <c r="A56" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75">
-      <c r="A57" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B57" s="26">
-        <v>59.95</v>
-      </c>
-      <c r="C57" s="26">
-        <v>59.95</v>
-      </c>
-      <c r="D57" s="26">
-        <v>59.95</v>
-      </c>
-      <c r="E57" s="26">
-        <v>59.95</v>
-      </c>
-      <c r="F57" s="26">
-        <v>59.95</v>
-      </c>
-      <c r="G57" s="26">
-        <v>59.95</v>
-      </c>
-      <c r="H57" s="27">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="I57" s="27">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="J57" s="27">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="K57" s="27">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="L57" s="27">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="M57" s="27">
-        <v>39.950000000000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75">
-      <c r="A58" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B58" s="26">
-        <v>3.99</v>
-      </c>
-      <c r="C58" s="26">
-        <v>3.99</v>
-      </c>
-      <c r="D58" s="26">
-        <v>3.99</v>
-      </c>
-      <c r="E58" s="26">
-        <v>3.99</v>
-      </c>
-      <c r="F58" s="26">
-        <v>3.99</v>
-      </c>
-      <c r="G58" s="26">
-        <v>3.99</v>
-      </c>
-      <c r="H58" s="27">
-        <v>3.99</v>
-      </c>
-      <c r="I58" s="27">
-        <v>3.99</v>
-      </c>
-      <c r="J58" s="27">
-        <v>3.99</v>
-      </c>
-      <c r="K58" s="27">
-        <v>3.99</v>
-      </c>
-      <c r="L58" s="27">
-        <v>3.99</v>
-      </c>
-      <c r="M58" s="27">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="15.75">
-      <c r="A59" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="H59" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="I59" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="J59" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="K59" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="L59" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="M59" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75">
-      <c r="A60" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="G60" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="H60" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="I60" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="J60" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="K60" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="L60" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="M60" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75">
-      <c r="A61" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.75">
-      <c r="A62" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B62" s="29">
-        <v>3</v>
-      </c>
-      <c r="C62" s="29">
-        <v>3</v>
-      </c>
-      <c r="D62" s="29">
-        <v>3</v>
-      </c>
-      <c r="E62" s="29">
-        <v>3</v>
-      </c>
-      <c r="F62" s="29">
-        <v>3</v>
-      </c>
-      <c r="G62" s="29">
-        <v>3</v>
-      </c>
-      <c r="H62" s="30">
-        <v>3</v>
-      </c>
-      <c r="I62" s="30">
-        <v>3</v>
-      </c>
-      <c r="J62" s="31">
-        <v>3</v>
-      </c>
-      <c r="K62" s="31">
-        <v>3</v>
-      </c>
-      <c r="L62" s="31">
-        <v>3</v>
-      </c>
-      <c r="M62" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.75">
-      <c r="A63" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B11:M11"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{5AD221A2-502E-480A-98A1-E154C4C950DB}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{CDA7A61D-BF4E-458E-86FA-4B61C6097DE3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -5286,124 +5289,124 @@
         <v>17</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="63">
       <c r="A8" s="12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="31.5">
       <c r="A9" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="58" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -5417,7 +5420,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="19" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B12" s="20">
         <v>1</v>
@@ -5447,97 +5450,97 @@
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="31.5">
       <c r="A14" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="31.5">
       <c r="A15" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -5551,37 +5554,37 @@
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B18" s="23">
         <v>1</v>
@@ -5611,7 +5614,7 @@
     </row>
     <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="9" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B19" s="26">
         <v>59.95</v>
@@ -5641,7 +5644,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="9" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B20" s="26">
         <v>53.96</v>
@@ -5671,7 +5674,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B21" s="26">
         <v>0</v>
@@ -5701,109 +5704,109 @@
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10" ht="236.25">
       <c r="A23" s="12" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" ht="210">
       <c r="A24" s="9" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="9" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
@@ -5813,37 +5816,37 @@
     </row>
     <row r="26" spans="1:10" ht="31.5">
       <c r="A26" s="9" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="9" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -5857,7 +5860,7 @@
     </row>
     <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="9" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -5871,37 +5874,37 @@
     </row>
     <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="9" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="9" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -5915,67 +5918,67 @@
     </row>
     <row r="31" spans="1:10" ht="31.5">
       <c r="A31" s="9" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" ht="31.5">
       <c r="A32" s="9" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="9" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B33" s="26">
         <v>53.96</v>
@@ -6005,7 +6008,7 @@
     </row>
     <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="9" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B34" s="26">
         <v>0</v>
@@ -6035,7 +6038,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="9" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B35" s="23">
         <v>3</v>
@@ -6065,121 +6068,121 @@
     </row>
     <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="9" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:10" ht="236.25">
       <c r="A37" s="12" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="J37" s="31"/>
     </row>
     <row r="38" spans="1:10" ht="409.6">
       <c r="A38" s="9" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="J38" s="39"/>
     </row>
     <row r="39" spans="1:10" ht="90">
       <c r="A39" s="12" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="H39" s="42" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="I39" s="42" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="J39" s="42"/>
     </row>
@@ -6198,28 +6201,28 @@
     <row r="41" spans="1:10" ht="31.5">
       <c r="A41" s="32"/>
       <c r="B41" s="33" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="H41" s="44" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="I41" s="44" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="J41" s="34"/>
     </row>
@@ -6238,28 +6241,28 @@
     <row r="43" spans="1:10" ht="31.5">
       <c r="A43" s="32"/>
       <c r="B43" s="33" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="I43" s="44" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="J43" s="34"/>
     </row>
@@ -6278,46 +6281,46 @@
     <row r="45" spans="1:10" ht="31.5">
       <c r="A45" s="35"/>
       <c r="B45" s="36" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F45" s="46" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="G45" s="46" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="H45" s="46" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="I45" s="46" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="J45" s="47"/>
     </row>
     <row r="46" spans="1:10" ht="15.75">
       <c r="A46" s="9" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F46" s="24"/>
       <c r="G46" s="25"/>
@@ -6327,7 +6330,7 @@
     </row>
     <row r="47" spans="1:10" ht="15.75">
       <c r="A47" s="9" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -6341,67 +6344,67 @@
     </row>
     <row r="48" spans="1:10" ht="141.75">
       <c r="A48" s="9" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="J48" s="25"/>
     </row>
     <row r="49" spans="1:10" ht="31.5">
       <c r="A49" s="9" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J49" s="25"/>
     </row>
     <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="9" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -6415,7 +6418,7 @@
     </row>
     <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="9" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -6429,7 +6432,7 @@
     </row>
     <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="9" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -6443,67 +6446,67 @@
     </row>
     <row r="53" spans="1:10" ht="15.75">
       <c r="A53" s="9" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" ht="31.5">
       <c r="A54" s="9" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="J54" s="25"/>
     </row>
     <row r="55" spans="1:10" ht="15.75">
       <c r="A55" s="9" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B55" s="23">
         <v>3</v>
@@ -6533,7 +6536,7 @@
     </row>
     <row r="56" spans="1:10" ht="15.75">
       <c r="A56" s="9" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -6547,7 +6550,7 @@
     </row>
     <row r="57" spans="1:10" ht="15.75">
       <c r="A57" s="9" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B57" s="26">
         <v>59.95</v>
@@ -6577,7 +6580,7 @@
     </row>
     <row r="58" spans="1:10" ht="15.75">
       <c r="A58" s="9" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="B58" s="26">
         <v>3.99</v>
@@ -6607,67 +6610,67 @@
     </row>
     <row r="59" spans="1:10" ht="31.5">
       <c r="A59" s="9" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="J59" s="25"/>
     </row>
     <row r="60" spans="1:10" ht="31.5">
       <c r="A60" s="9" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="J60" s="25"/>
     </row>
     <row r="61" spans="1:10" ht="15.75">
       <c r="A61" s="9" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -6681,7 +6684,7 @@
     </row>
     <row r="62" spans="1:10" ht="15.75">
       <c r="A62" s="12" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="B62" s="29">
         <v>3</v>
@@ -6711,7 +6714,7 @@
     </row>
     <row r="63" spans="1:10" ht="15.75">
       <c r="A63" s="48" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -6736,6 +6739,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -6900,23 +6918,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B7E81B9-0DBC-4B6F-B81B-23A2297988BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87DCF75C-B8B4-470A-8529-566D05F21EF6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6924,5 +6927,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87DCF75C-B8B4-470A-8529-566D05F21EF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B7E81B9-0DBC-4B6F-B81B-23A2297988BB}"/>
 </file>